--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1658.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1658.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.952358738968967</v>
+        <v>3.346648216247559</v>
       </c>
       <c r="B1">
-        <v>3.299609189239334</v>
+        <v>2.63078498840332</v>
       </c>
       <c r="C1">
-        <v>2.792973208679842</v>
+        <v>2.261423110961914</v>
       </c>
       <c r="D1">
-        <v>2.263331812579067</v>
+        <v>2.398743867874146</v>
       </c>
       <c r="E1">
-        <v>1.396476692790091</v>
+        <v>2.861247539520264</v>
       </c>
     </row>
   </sheetData>
